--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/GERD_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/GERD_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Heartburn or acid regurgitation</t>
+          <t>Heartburn occurring after meals</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These symptoms are classic presentations of GERD and are highly specific to the condition.</t>
+          <t>Heartburn after meals is a classic symptom of GERD due to acid reflux being more likely when the stomach is full.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of heartburn or acid regurgitation</t>
+          <t>Absence of heartburn or regurgitation</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of these hallmark symptoms strongly suggests that GERD is not present.</t>
+          <t>The absence of heartburn or regurgitation makes GERD less likely, as these are hallmark symptoms.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Symptoms worsen after meals or when lying down</t>
+          <t>Regurgitation of sour or bitter-tasting acid into the throat or mouth</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This finding is characteristic of GERD, as lying down can exacerbate acid reflux.</t>
+          <t>Regurgitation is a common symptom of GERD, indicating acid reflux reaching the upper esophagus and mouth.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Symptoms improve with antacids or proton pump inhibitors</t>
+          <t>Symptoms improve with antacids but not with proton pump inhibitors</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>While this may seem supportive, if symptoms do not respond to typical GERD treatments, it may indicate a different condition.</t>
+          <t>Improvement with antacids but not with proton pump inhibitors may suggest a condition other than GERD.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chronic cough or throat irritation</t>
+          <t>Worsening of symptoms when lying down or bending over</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>These symptoms can occur due to acid reflux irritating the throat and airways, supporting a GERD diagnosis.</t>
+          <t>Symptoms worsening in these positions suggest GERD as gravity no longer helps keep stomach contents down.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Presence of chest pain unrelated to meals</t>
+          <t>Chest pain relieved by exercise</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chest pain that is not related to eating or lying down may suggest a cardiac issue rather than GERD.</t>
+          <t>Chest pain relieved by exercise is atypical for GERD and may suggest a non-GERD cause.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bitter taste in the mouth</t>
+          <t>Chronic cough or throat clearing</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>This symptom can indicate the presence of stomach acid in the esophagus, which is common in GERD.</t>
+          <t>A chronic cough or throat clearing can be caused by acid irritating the throat, a symptom associated with GERD.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No nocturnal symptoms</t>
+          <t>Nocturnal symptoms without daytime symptoms</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GERD often presents with nocturnal symptoms; their absence can indicate that GERD is unlikely.</t>
+          <t>Nocturnal symptoms without daytime symptoms are less typical for GERD, which usually presents with both.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Difficulty swallowing (dysphagia)</t>
+          <t>Hoarseness, especially in the morning</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dysphagia can occur in GERD due to esophageal inflammation or strictures caused by chronic acid exposure.</t>
+          <t>Hoarseness in the morning can result from acid reflux irritating the vocal cords overnight, a sign of GERD.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recent weight loss without trying</t>
+          <t>Symptoms triggered by non-acidic foods</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Unexplained weight loss can indicate serious underlying conditions that are not typical of GERD.</t>
+          <t>Symptoms triggered by non-acidic foods may indicate a different gastrointestinal issue rather than GERD.</t>
         </is>
       </c>
     </row>
@@ -618,39 +618,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esophagitis is often a direct consequence of GERD due to acid exposure, making it a strong indicator of the condition.</t>
+          <t>Esophagitis is often caused by acid reflux, which is a hallmark of GERD.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of heartburn or regurgitation</t>
+          <t>No history of heartburn or acid regurgitation</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of these hallmark symptoms strongly suggests that GERD is not present.</t>
+          <t>The absence of heartburn or acid regurgitation, common symptoms of GERD, makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of peptic ulcer disease</t>
+          <t>Previous diagnosis of Barrett's esophagus</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peptic ulcers can be associated with GERD, as the underlying mechanisms of acid production and reflux may overlap.</t>
+          <t>Barrett's esophagus is a complication of chronic GERD, indicating long-term acid exposure.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No previous gastrointestinal surgeries</t>
+          <t>No history of esophageal or gastric surgery</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A lack of surgical history may indicate a lower likelihood of structural issues contributing to GERD.</t>
+          <t>Lack of surgical intervention for GERD-related complications suggests a lower likelihood of the condition.</t>
         </is>
       </c>
     </row>
@@ -662,61 +662,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients with GERD are frequently treated with PPIs, indicating a history of acid-related symptoms.</t>
+          <t>PPIs are commonly prescribed for GERD to reduce stomach acid production.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No use of antacids or acid-reducing medications</t>
+          <t>No use of acid-suppressing medications</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Not using these medications suggests that the patient does not experience symptoms typically associated with GERD.</t>
+          <t>Not using medications like PPIs or H2 blockers suggests GERD is less likely, as these are common treatments.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of asthma or respiratory issues</t>
+          <t>History of hiatal hernia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Asthma can be exacerbated by GERD due to aspiration of gastric contents, linking respiratory issues with acid reflux.</t>
+          <t>A hiatal hernia can contribute to GERD by allowing stomach acid to enter the esophagus more easily.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of normal esophagogastroduodenoscopy (EGD)</t>
+          <t>No history of esophageal strictures</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A normal EGD indicates no evidence of esophageal damage or reflux, making GERD unlikely.</t>
+          <t>Esophageal strictures can result from chronic GERD; their absence suggests GERD is less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Prior surgical intervention for hiatal hernia</t>
+          <t>Previous fundoplication surgery</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A hiatal hernia can contribute to GERD, and previous surgical correction indicates a history of related symptoms.</t>
+          <t>Fundoplication is a surgical procedure often performed to treat GERD.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No family history of GERD or related conditions</t>
+          <t>No history of chronic cough or laryngitis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A lack of familial predisposition may suggest a lower risk for developing GERD.</t>
+          <t>Chronic cough or laryngitis can be extra-esophageal manifestations of GERD; their absence reduces the likelihood of GERD.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of GERD or related conditions</t>
+          <t>Family history of GERD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A genetic predisposition can increase the likelihood of developing GERD, as it may run in families.</t>
+          <t>A family history of GERD increases the likelihood of having GERD due to potential genetic predispositions.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of smoking or tobacco use</t>
+          <t>No family history of GERD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of smoking history reduces the likelihood of GERD, as smoking is a known risk factor.</t>
+          <t>Absence of a family history of GERD reduces the likelihood of having GERD due to lower genetic predisposition.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>High consumption of fatty foods or caffeine</t>
+          <t>High alcohol consumption</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dietary habits that include high-fat foods and caffeine are known risk factors for GERD, as they can relax the lower esophageal sphincter.</t>
+          <t>Alcohol can relax the lower esophageal sphincter, increasing the risk of acid reflux and GERD.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Regular exercise and active lifestyle</t>
+          <t>Non-smoker</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>An active lifestyle can help maintain a healthy weight and reduce the risk of GERD.</t>
+          <t>Not smoking reduces the risk of GERD as smoking is a known risk factor for the condition.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Obesity or overweight status</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Excess body weight increases abdominal pressure, which can lead to reflux and is a significant risk factor for GERD.</t>
+          <t>Smoking is known to relax the lower esophageal sphincter and increase acid production, both of which contribute to GERD.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Healthy diet low in fats and caffeine</t>
+          <t>Low alcohol consumption</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A diet that avoids known triggers for GERD decreases the likelihood of developing the condition.</t>
+          <t>Low alcohol intake reduces the risk of GERD as alcohol can exacerbate reflux symptoms.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Smoking history</t>
+          <t>Obesity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Smoking is associated with decreased lower esophageal sphincter tone, increasing the risk of GERD.</t>
+          <t>Obesity increases abdominal pressure, which can lead to the development of GERD.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No family history of GERD or related conditions</t>
+          <t>Normal weight</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lack of a genetic predisposition suggests a lower risk for developing GERD.</t>
+          <t>Maintaining a normal weight reduces abdominal pressure and the risk of GERD.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sedentary lifestyle</t>
+          <t>Diet high in fatty foods</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A lack of physical activity can contribute to obesity and other risk factors associated with GERD.</t>
+          <t>Fatty foods can relax the lower esophageal sphincter and delay stomach emptying, increasing the risk of GERD.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal body weight</t>
+          <t>Diet low in fatty foods</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maintaining a healthy weight reduces abdominal pressure and the risk of reflux, making GERD less likely.</t>
+          <t>A diet low in fatty foods reduces the risk of GERD as fatty foods can contribute to reflux.</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Epigastric tenderness is commonly observed in patients with GERD due to inflammation of the esophagus and surrounding tissues.</t>
+          <t>Epigastric tenderness can be associated with GERD due to irritation of the esophagus and stomach lining.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -930,95 +930,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal abdominal exam suggests that there is no significant gastrointestinal pathology, making GERD less likely.</t>
+          <t>A completely normal abdominal exam may suggest the absence of GERD, as GERD often presents with some abdominal findings.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Presence of wheezing or cough</t>
+          <t>Reflux symptoms on physical exam</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wheezing or chronic cough can occur due to aspiration of gastric contents, which is a common complication of GERD.</t>
+          <t>Observing reflux symptoms during a physical exam, such as regurgitation, can directly indicate GERD.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No signs of respiratory distress</t>
+          <t>No signs of reflux during exam</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of respiratory distress indicates that there is likely no aspiration or significant respiratory complications from GERD.</t>
+          <t>The absence of observable reflux symptoms during a physical exam can argue against GERD.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dental erosion</t>
+          <t>Hoarseness</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dental erosion can be a physical exam finding in GERD patients due to acid exposure from reflux, indicating chronic acid damage.</t>
+          <t>Hoarseness can occur due to acid reflux irritating the vocal cords, supporting a diagnosis of GERD.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No dental erosion</t>
+          <t>Normal oral examination</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of dental erosion suggests that there has not been chronic acid exposure, which is often seen in GERD patients.</t>
+          <t>A normal oral examination without signs of dental erosion or halitosis may suggest GERD is not present.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Halitosis (bad breath)</t>
+          <t>Dental erosion</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Halitosis can be associated with GERD due to the presence of stomach acid and digestive contents in the esophagus.</t>
+          <t>Dental erosion is a physical sign that can result from chronic acid exposure due to GERD.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>No epigastric tenderness</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal vital signs indicate that the patient is stable and not experiencing acute complications related to GERD.</t>
+          <t>The absence of epigastric tenderness can indicate that GERD is less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Signs of esophagitis on examination</t>
+          <t>Halitosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Physical examination may reveal signs of esophagitis, which is inflammation of the esophagus commonly seen in GERD.</t>
+          <t>Bad breath or halitosis can be a result of acid reflux, which is common in GERD.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No signs of esophagitis on examination</t>
+          <t>Normal voice quality</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of esophagitis on examination suggests that there is no inflammation of the esophagus, which is a key feature of GERD.</t>
+          <t>Normal voice quality without hoarseness suggests that GERD-related laryngeal irritation is not present.</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esophageal pH monitoring showing prolonged acid exposure</t>
+          <t>Positive esophageal pH monitoring</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding indicates that there is excessive acid in the esophagus, which is characteristic of GERD.</t>
+          <t>This test directly measures acid exposure in the esophagus, which is a hallmark of GERD.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1081,95 +1081,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal pH monitoring result indicates that there is no excessive acid exposure, making GERD unlikely.</t>
+          <t>Normal acid exposure in the esophagus makes GERD less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Endoscopy revealing esophagitis</t>
+          <t>Endoscopic evidence of esophagitis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The presence of inflammation in the esophagus is a direct consequence of acid reflux, supporting a diagnosis of GERD.</t>
+          <t>Endoscopy showing esophagitis is highly specific for GERD, as it indicates inflammation due to acid exposure.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Endoscopy showing no signs of esophagitis</t>
+          <t>Normal endoscopy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of inflammation in the esophagus suggests that acid reflux is not occurring, arguing against GERD.</t>
+          <t>Absence of esophagitis or other abnormalities on endoscopy suggests GERD is less likely.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barium swallow study showing reflux</t>
+          <t>Positive Bernstein test</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Demonstrating reflux during a barium swallow indicates that the lower esophageal sphincter is not functioning properly, a hallmark of GERD.</t>
+          <t>This test reproduces symptoms by introducing acid into the esophagus, indicating acid sensitivity typical of GERD.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Barium swallow study showing no reflux</t>
+          <t>Negative Bernstein test</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>If no reflux is observed, it indicates that the lower esophageal sphincter is functioning properly, which is inconsistent with GERD.</t>
+          <t>Failure to reproduce symptoms with acid introduction suggests GERD is less likely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing decreased lower esophageal sphincter pressure</t>
+          <t>Esophageal manometry showing hypotensive LES</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lower pressure in the lower esophageal sphincter can lead to reflux, which is a key feature of GERD.</t>
+          <t>A hypotensive lower esophageal sphincter (LES) is often associated with GERD, as it allows acid reflux.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing normal lower esophageal sphincter pressure</t>
+          <t>Esophageal manometry showing normal LES pressure</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal pressure readings suggest that the sphincter is functioning adequately, reducing the likelihood of GERD.</t>
+          <t>Normal LES pressure reduces the likelihood of GERD, as it suggests normal barrier function against reflux.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Positive response to proton pump inhibitors</t>
+          <t>Barium swallow showing reflux</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A significant reduction in symptoms with proton pump inhibitors suggests that acid reflux is the underlying issue, consistent with GERD.</t>
+          <t>Barium swallow can visualize reflux of barium from the stomach into the esophagus, supporting GERD diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Negative response to proton pump inhibitors</t>
+          <t>Barium swallow showing no reflux</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>If symptoms do not improve with proton pump inhibitors, it suggests that acid reflux is not the cause, making GERD less likely.</t>
+          <t>Absence of reflux during a barium swallow test suggests GERD is less likely.</t>
         </is>
       </c>
     </row>
